--- a/bases/resultado_fiscal_enero_2021.xlsx
+++ b/bases/resultado_fiscal_enero_2021.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" tabRatio="612" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="7650" tabRatio="612" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AIF" sheetId="1" r:id="rId1"/>
@@ -543,17 +543,17 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="11">
-    <numFmt numFmtId="175" formatCode="_-* #,##0.00\ _P_t_s_-;\-* #,##0.00\ _P_t_s_-;_-* &quot;-&quot;??\ _P_t_s_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="0.0"/>
-    <numFmt numFmtId="177" formatCode="0.0____"/>
-    <numFmt numFmtId="178" formatCode="0.0______"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="#,##0.0__"/>
-    <numFmt numFmtId="181" formatCode="#,##0.0____"/>
-    <numFmt numFmtId="182" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="183" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="184" formatCode="0.0%"/>
-    <numFmt numFmtId="185" formatCode="#,##0__"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _P_t_s_-;\-* #,##0.00\ _P_t_s_-;_-* &quot;-&quot;??\ _P_t_s_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0____"/>
+    <numFmt numFmtId="167" formatCode="0.0______"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0.00\ [$€]_-;\-* #,##0.00\ [$€]_-;_-* &quot;-&quot;??\ [$€]_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="#,##0.0__"/>
+    <numFmt numFmtId="170" formatCode="#,##0.0____"/>
+    <numFmt numFmtId="171" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="172" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="173" formatCode="0.0%"/>
+    <numFmt numFmtId="174" formatCode="#,##0__"/>
   </numFmts>
   <fonts count="45">
     <font>
@@ -984,80 +984,80 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1066,10 +1066,10 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1078,115 +1078,115 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="centerContinuous" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="169" fontId="8" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="15" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="183" fontId="15" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="15" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="172" fontId="15" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1199,13 +1199,13 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="16" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="16" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="16" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="16" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1217,7 +1217,7 @@
     <xf numFmtId="17" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="22" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="22" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1226,7 +1226,7 @@
     <xf numFmtId="0" fontId="23" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="22" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="22" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="17" fontId="21" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1235,62 +1235,62 @@
     <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="22" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="22" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="22" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="22" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="22" fillId="4" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="22" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="22" fillId="4" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="22" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="14" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="14" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="14" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="14" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="14" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="14" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="14" fillId="5" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="14" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="24" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="24" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="24" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="24" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="24" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="24" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="24" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="24" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="24" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="14" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="14" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="15" fillId="3" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
@@ -1303,37 +1303,37 @@
     <xf numFmtId="0" fontId="27" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="25" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="25" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="25" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="25" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="25" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="25" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="25" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="25" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="25" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="15" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="182" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="173" fontId="15" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="182" fontId="27" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="27" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="27" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="184" fontId="27" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="27" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="27" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="27" fillId="3" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="27" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="27" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1353,10 +1353,10 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="176" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="11" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="185" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="13" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1364,31 +1364,31 @@
     <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="28" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="30" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="30" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="28" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="28" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="32" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="32" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="32" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1805,7 +1805,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4138,7 +4138,7 @@
   <dimension ref="A1:W118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" workbookViewId="0">
-      <selection activeCell="D71" sqref="D71"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" outlineLevelRow="2"/>
@@ -4868,7 +4868,7 @@
         <v>0.2513789246316438</v>
       </c>
       <c r="J35" s="110">
-        <v>7820.6999999999935</v>
+        <v>7820.7</v>
       </c>
       <c r="K35" s="111"/>
       <c r="L35" s="107"/>
@@ -5047,7 +5047,7 @@
         <v>5.9983227438771269E-3</v>
       </c>
       <c r="J43" s="122">
-        <v>126.59999999999491</v>
+        <v>126.6</v>
       </c>
       <c r="K43" s="123"/>
     </row>
@@ -5628,14 +5628,14 @@
       <c r="E69" s="94"/>
       <c r="F69" s="94"/>
       <c r="G69" s="95">
-        <v>24073.59999999986</v>
+        <v>24073.599999999999</v>
       </c>
       <c r="H69" s="96">
         <v>-3766</v>
       </c>
       <c r="I69" s="97"/>
       <c r="J69" s="98">
-        <v>27839.59999999986</v>
+        <v>27839.599999999999</v>
       </c>
       <c r="K69" s="99"/>
     </row>
@@ -5668,7 +5668,7 @@
       <c r="E71" s="94"/>
       <c r="F71" s="94"/>
       <c r="G71" s="95">
-        <v>-3030.3000000001375</v>
+        <v>-3030.3</v>
       </c>
       <c r="H71" s="96">
         <v>-90818.1</v>
@@ -5677,7 +5677,7 @@
         <v>-0.9666333032732447</v>
       </c>
       <c r="J71" s="98">
-        <v>87787.799999999872</v>
+        <v>87787.8</v>
       </c>
       <c r="K71" s="99"/>
     </row>
